--- a/example/student_datasource.xlsx
+++ b/example/student_datasource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Python\ccuoa-client\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Python\ccuoa-client\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9390B51C-0B04-4A9C-99ED-CDA048E2CBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154D15B-4AF9-4031-973E-2DDD22D6F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3690" windowWidth="22905" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="22905" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_table" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
